--- a/uk daily.xlsx
+++ b/uk daily.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12900" windowHeight="9980"/>
+    <workbookView windowWidth="24860" windowHeight="10060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>Area name</t>
   </si>
@@ -25,13 +26,19 @@
     <t>Area type</t>
   </si>
   <si>
-    <t>Reporting date</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Daily change in deaths</t>
   </si>
   <si>
     <t>Cumulative deaths</t>
+  </si>
+  <si>
+    <t>death inside care homes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deaths outside the care homes </t>
   </si>
   <si>
     <t>United Kingdom</t>
@@ -42,16 +49,19 @@
   <si>
     <t>UK</t>
   </si>
+  <si>
+    <t>Reporting date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,7 +73,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,10 +101,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,16 +117,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,10 +133,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,32 +148,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,15 +170,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,7 +202,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,133 +231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +261,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,19 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +416,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,20 +452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,30 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -506,153 +507,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,10 +992,2873 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:H147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <cols>
+    <col min="4" max="4" width="13.0892857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43896</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f>E2-G2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43897</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H34" si="0">E3-G3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43898</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43899</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43900</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43901</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43902</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43903</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43904</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43905</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43906</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43907</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>81</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43908</v>
+      </c>
+      <c r="E14">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>115</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43909</v>
+      </c>
+      <c r="E15">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>158</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43910</v>
+      </c>
+      <c r="E16">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <v>194</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43911</v>
+      </c>
+      <c r="E17">
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <v>250</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43912</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>285</v>
+      </c>
+      <c r="G18">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43913</v>
+      </c>
+      <c r="E19">
+        <v>74</v>
+      </c>
+      <c r="F19">
+        <v>359</v>
+      </c>
+      <c r="G19">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43914</v>
+      </c>
+      <c r="E20">
+        <v>149</v>
+      </c>
+      <c r="F20">
+        <v>508</v>
+      </c>
+      <c r="G20">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43915</v>
+      </c>
+      <c r="E21">
+        <v>187</v>
+      </c>
+      <c r="F21">
+        <v>695</v>
+      </c>
+      <c r="G21">
+        <v>45</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43916</v>
+      </c>
+      <c r="E22">
+        <v>183</v>
+      </c>
+      <c r="F22">
+        <v>878</v>
+      </c>
+      <c r="G22">
+        <v>45</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43917</v>
+      </c>
+      <c r="E23">
+        <v>284</v>
+      </c>
+      <c r="F23">
+        <v>1162</v>
+      </c>
+      <c r="G23">
+        <v>64</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43918</v>
+      </c>
+      <c r="E24">
+        <v>294</v>
+      </c>
+      <c r="F24">
+        <v>1456</v>
+      </c>
+      <c r="G24">
+        <v>67</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43919</v>
+      </c>
+      <c r="E25">
+        <v>214</v>
+      </c>
+      <c r="F25">
+        <v>1670</v>
+      </c>
+      <c r="G25">
+        <v>81</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E26">
+        <v>374</v>
+      </c>
+      <c r="F26">
+        <v>2044</v>
+      </c>
+      <c r="G26">
+        <v>107</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E27">
+        <v>382</v>
+      </c>
+      <c r="F27">
+        <v>2426</v>
+      </c>
+      <c r="G27">
+        <v>131</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E28">
+        <v>670</v>
+      </c>
+      <c r="F28">
+        <v>3096</v>
+      </c>
+      <c r="G28">
+        <v>151</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43923</v>
+      </c>
+      <c r="E29">
+        <v>652</v>
+      </c>
+      <c r="F29">
+        <v>3748</v>
+      </c>
+      <c r="G29">
+        <v>187</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43924</v>
+      </c>
+      <c r="E30">
+        <v>714</v>
+      </c>
+      <c r="F30">
+        <v>4462</v>
+      </c>
+      <c r="G30">
+        <v>231</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43925</v>
+      </c>
+      <c r="E31">
+        <v>760</v>
+      </c>
+      <c r="F31">
+        <v>5222</v>
+      </c>
+      <c r="G31">
+        <v>236</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43926</v>
+      </c>
+      <c r="E32">
+        <v>644</v>
+      </c>
+      <c r="F32">
+        <v>5866</v>
+      </c>
+      <c r="G32">
+        <v>289</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43927</v>
+      </c>
+      <c r="E33">
+        <v>568</v>
+      </c>
+      <c r="F33">
+        <v>6434</v>
+      </c>
+      <c r="G33">
+        <v>274</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43928</v>
+      </c>
+      <c r="E34">
+        <v>1038</v>
+      </c>
+      <c r="F34">
+        <v>7472</v>
+      </c>
+      <c r="G34">
+        <v>357</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43929</v>
+      </c>
+      <c r="E35">
+        <v>1034</v>
+      </c>
+      <c r="F35">
+        <v>8506</v>
+      </c>
+      <c r="G35">
+        <v>381</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:H66" si="1">E35-G35</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43930</v>
+      </c>
+      <c r="E36">
+        <v>1110</v>
+      </c>
+      <c r="F36">
+        <v>9616</v>
+      </c>
+      <c r="G36">
+        <v>385</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43931</v>
+      </c>
+      <c r="E37">
+        <v>1152</v>
+      </c>
+      <c r="F37">
+        <v>10768</v>
+      </c>
+      <c r="G37">
+        <v>403</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43932</v>
+      </c>
+      <c r="E38">
+        <v>840</v>
+      </c>
+      <c r="F38">
+        <v>11608</v>
+      </c>
+      <c r="G38">
+        <v>447</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43933</v>
+      </c>
+      <c r="E39">
+        <v>686</v>
+      </c>
+      <c r="F39">
+        <v>12294</v>
+      </c>
+      <c r="G39">
+        <v>495</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43934</v>
+      </c>
+      <c r="E40">
+        <v>744</v>
+      </c>
+      <c r="F40">
+        <v>13038</v>
+      </c>
+      <c r="G40">
+        <v>414</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43935</v>
+      </c>
+      <c r="E41">
+        <v>1047</v>
+      </c>
+      <c r="F41">
+        <v>14085</v>
+      </c>
+      <c r="G41">
+        <v>453</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43936</v>
+      </c>
+      <c r="E42">
+        <v>842</v>
+      </c>
+      <c r="F42">
+        <v>14927</v>
+      </c>
+      <c r="G42">
+        <v>466</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
+        <v>43937</v>
+      </c>
+      <c r="E43">
+        <v>1029</v>
+      </c>
+      <c r="F43">
+        <v>15956</v>
+      </c>
+      <c r="G43">
+        <v>526</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43938</v>
+      </c>
+      <c r="E44">
+        <v>936</v>
+      </c>
+      <c r="F44">
+        <v>16892</v>
+      </c>
+      <c r="G44">
+        <v>540</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43939</v>
+      </c>
+      <c r="E45">
+        <v>1115</v>
+      </c>
+      <c r="F45">
+        <v>18007</v>
+      </c>
+      <c r="G45">
+        <v>499</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43940</v>
+      </c>
+      <c r="E46">
+        <v>498</v>
+      </c>
+      <c r="F46">
+        <v>18505</v>
+      </c>
+      <c r="G46">
+        <v>470</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43941</v>
+      </c>
+      <c r="E47">
+        <v>559</v>
+      </c>
+      <c r="F47">
+        <v>19064</v>
+      </c>
+      <c r="G47">
+        <v>480</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1">
+        <v>43942</v>
+      </c>
+      <c r="E48">
+        <v>1173</v>
+      </c>
+      <c r="F48">
+        <v>20237</v>
+      </c>
+      <c r="G48">
+        <v>436</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43943</v>
+      </c>
+      <c r="E49">
+        <v>837</v>
+      </c>
+      <c r="F49">
+        <v>21074</v>
+      </c>
+      <c r="G49">
+        <v>492</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1">
+        <v>43944</v>
+      </c>
+      <c r="E50">
+        <v>727</v>
+      </c>
+      <c r="F50">
+        <v>21801</v>
+      </c>
+      <c r="G50">
+        <v>458</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43945</v>
+      </c>
+      <c r="E51">
+        <v>1006</v>
+      </c>
+      <c r="F51">
+        <v>22807</v>
+      </c>
+      <c r="G51">
+        <v>454</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43946</v>
+      </c>
+      <c r="E52">
+        <v>843</v>
+      </c>
+      <c r="F52">
+        <v>23650</v>
+      </c>
+      <c r="G52">
+        <v>444</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1">
+        <v>43947</v>
+      </c>
+      <c r="E53">
+        <v>420</v>
+      </c>
+      <c r="F53">
+        <v>24070</v>
+      </c>
+      <c r="G53">
+        <v>402</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="1">
+        <v>43948</v>
+      </c>
+      <c r="E54">
+        <v>338</v>
+      </c>
+      <c r="F54">
+        <v>24408</v>
+      </c>
+      <c r="G54">
+        <v>389</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43949</v>
+      </c>
+      <c r="E55">
+        <v>911</v>
+      </c>
+      <c r="F55">
+        <v>25319</v>
+      </c>
+      <c r="G55">
+        <v>385</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1">
+        <v>43950</v>
+      </c>
+      <c r="E56">
+        <v>795</v>
+      </c>
+      <c r="F56">
+        <v>26114</v>
+      </c>
+      <c r="G56">
+        <v>392</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43951</v>
+      </c>
+      <c r="E57">
+        <v>674</v>
+      </c>
+      <c r="F57">
+        <v>26788</v>
+      </c>
+      <c r="G57">
+        <v>336</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1">
+        <v>43952</v>
+      </c>
+      <c r="E58">
+        <v>740</v>
+      </c>
+      <c r="F58">
+        <v>27528</v>
+      </c>
+      <c r="G58">
+        <v>356</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1">
+        <v>43953</v>
+      </c>
+      <c r="E59">
+        <v>621</v>
+      </c>
+      <c r="F59">
+        <v>28149</v>
+      </c>
+      <c r="G59">
+        <v>331</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1">
+        <v>43954</v>
+      </c>
+      <c r="E60">
+        <v>315</v>
+      </c>
+      <c r="F60">
+        <v>28464</v>
+      </c>
+      <c r="G60">
+        <v>312</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1">
+        <v>43955</v>
+      </c>
+      <c r="E61">
+        <v>288</v>
+      </c>
+      <c r="F61">
+        <v>28752</v>
+      </c>
+      <c r="G61">
+        <v>308</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43956</v>
+      </c>
+      <c r="E62">
+        <v>694</v>
+      </c>
+      <c r="F62">
+        <v>29446</v>
+      </c>
+      <c r="G62">
+        <v>295</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43957</v>
+      </c>
+      <c r="E63">
+        <v>652</v>
+      </c>
+      <c r="F63">
+        <v>30098</v>
+      </c>
+      <c r="G63">
+        <v>267</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43958</v>
+      </c>
+      <c r="E64">
+        <v>540</v>
+      </c>
+      <c r="F64">
+        <v>30638</v>
+      </c>
+      <c r="G64">
+        <v>292</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43959</v>
+      </c>
+      <c r="E65">
+        <v>627</v>
+      </c>
+      <c r="F65">
+        <v>31265</v>
+      </c>
+      <c r="G65">
+        <v>274</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1">
+        <v>43960</v>
+      </c>
+      <c r="E66">
+        <v>345</v>
+      </c>
+      <c r="F66">
+        <v>31610</v>
+      </c>
+      <c r="G66">
+        <v>287</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43961</v>
+      </c>
+      <c r="E67">
+        <v>269</v>
+      </c>
+      <c r="F67">
+        <v>31879</v>
+      </c>
+      <c r="G67">
+        <v>224</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H98" si="2">E67-G67</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43962</v>
+      </c>
+      <c r="E68">
+        <v>211</v>
+      </c>
+      <c r="F68">
+        <v>32090</v>
+      </c>
+      <c r="G68">
+        <v>184</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43963</v>
+      </c>
+      <c r="E69">
+        <v>630</v>
+      </c>
+      <c r="F69">
+        <v>32720</v>
+      </c>
+      <c r="G69">
+        <v>201</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="2"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1">
+        <v>43964</v>
+      </c>
+      <c r="E70">
+        <v>496</v>
+      </c>
+      <c r="F70">
+        <v>33216</v>
+      </c>
+      <c r="G70">
+        <v>213</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="2"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43965</v>
+      </c>
+      <c r="E71">
+        <v>428</v>
+      </c>
+      <c r="F71">
+        <v>33644</v>
+      </c>
+      <c r="G71">
+        <v>208</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43966</v>
+      </c>
+      <c r="E72">
+        <v>384</v>
+      </c>
+      <c r="F72">
+        <v>34028</v>
+      </c>
+      <c r="G72">
+        <v>197</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>43967</v>
+      </c>
+      <c r="E73">
+        <v>480</v>
+      </c>
+      <c r="F73">
+        <v>34508</v>
+      </c>
+      <c r="G73">
+        <v>202</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="2"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1">
+        <v>43968</v>
+      </c>
+      <c r="E74">
+        <v>170</v>
+      </c>
+      <c r="F74">
+        <v>34678</v>
+      </c>
+      <c r="G74">
+        <v>171</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1">
+        <v>43969</v>
+      </c>
+      <c r="E75">
+        <v>160</v>
+      </c>
+      <c r="F75">
+        <v>34838</v>
+      </c>
+      <c r="G75">
+        <v>179</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="2"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1">
+        <v>43970</v>
+      </c>
+      <c r="E76">
+        <v>548</v>
+      </c>
+      <c r="F76">
+        <v>35386</v>
+      </c>
+      <c r="G76">
+        <v>162</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="2"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="1">
+        <v>43971</v>
+      </c>
+      <c r="E77">
+        <v>369</v>
+      </c>
+      <c r="F77">
+        <v>35755</v>
+      </c>
+      <c r="G77">
+        <v>143</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1">
+        <v>43972</v>
+      </c>
+      <c r="E78">
+        <v>338</v>
+      </c>
+      <c r="F78">
+        <v>36093</v>
+      </c>
+      <c r="G78">
+        <v>135</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1">
+        <v>43973</v>
+      </c>
+      <c r="E79">
+        <v>358</v>
+      </c>
+      <c r="F79">
+        <v>36451</v>
+      </c>
+      <c r="G79">
+        <v>130</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="1">
+        <v>43974</v>
+      </c>
+      <c r="E80">
+        <v>283</v>
+      </c>
+      <c r="F80">
+        <v>36734</v>
+      </c>
+      <c r="G80">
+        <v>123</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="1">
+        <v>43975</v>
+      </c>
+      <c r="E81">
+        <v>441</v>
+      </c>
+      <c r="F81">
+        <v>37175</v>
+      </c>
+      <c r="G81">
+        <v>120</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1">
+        <v>43976</v>
+      </c>
+      <c r="E82">
+        <v>122</v>
+      </c>
+      <c r="F82">
+        <v>37297</v>
+      </c>
+      <c r="G82">
+        <v>109</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1">
+        <v>43977</v>
+      </c>
+      <c r="E83">
+        <v>136</v>
+      </c>
+      <c r="F83">
+        <v>37433</v>
+      </c>
+      <c r="G83">
+        <v>134</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1">
+        <v>43978</v>
+      </c>
+      <c r="E84">
+        <v>443</v>
+      </c>
+      <c r="F84">
+        <v>37876</v>
+      </c>
+      <c r="G84">
+        <v>111</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="1">
+        <v>43979</v>
+      </c>
+      <c r="E85">
+        <v>416</v>
+      </c>
+      <c r="F85">
+        <v>38292</v>
+      </c>
+      <c r="G85">
+        <v>120</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="2"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="1">
+        <v>43980</v>
+      </c>
+      <c r="E86">
+        <v>373</v>
+      </c>
+      <c r="F86">
+        <v>38665</v>
+      </c>
+      <c r="G86">
+        <v>94</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="1">
+        <v>43981</v>
+      </c>
+      <c r="E87">
+        <v>230</v>
+      </c>
+      <c r="F87">
+        <v>38895</v>
+      </c>
+      <c r="G87">
+        <v>83</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="1">
+        <v>43982</v>
+      </c>
+      <c r="E88">
+        <v>115</v>
+      </c>
+      <c r="F88">
+        <v>39010</v>
+      </c>
+      <c r="G88">
+        <v>86</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="1">
+        <v>43983</v>
+      </c>
+      <c r="E89">
+        <v>111</v>
+      </c>
+      <c r="F89">
+        <v>39121</v>
+      </c>
+      <c r="G89">
+        <v>89</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="1">
+        <v>43984</v>
+      </c>
+      <c r="E90">
+        <v>326</v>
+      </c>
+      <c r="F90">
+        <v>39447</v>
+      </c>
+      <c r="G90">
+        <v>92</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="1">
+        <v>43985</v>
+      </c>
+      <c r="E91">
+        <v>365</v>
+      </c>
+      <c r="F91">
+        <v>39812</v>
+      </c>
+      <c r="G91">
+        <v>73</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="1">
+        <v>43986</v>
+      </c>
+      <c r="E92">
+        <v>177</v>
+      </c>
+      <c r="F92">
+        <v>39989</v>
+      </c>
+      <c r="G92">
+        <v>80</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="1">
+        <v>43987</v>
+      </c>
+      <c r="E93">
+        <v>358</v>
+      </c>
+      <c r="F93">
+        <v>40347</v>
+      </c>
+      <c r="G93">
+        <v>76</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="1">
+        <v>43988</v>
+      </c>
+      <c r="E94">
+        <v>207</v>
+      </c>
+      <c r="F94">
+        <v>40554</v>
+      </c>
+      <c r="G94">
+        <v>39</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="1">
+        <v>43989</v>
+      </c>
+      <c r="E95">
+        <v>77</v>
+      </c>
+      <c r="F95">
+        <v>40631</v>
+      </c>
+      <c r="G95">
+        <v>57</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="1">
+        <v>43990</v>
+      </c>
+      <c r="E96">
+        <v>55</v>
+      </c>
+      <c r="F96">
+        <v>40686</v>
+      </c>
+      <c r="G96">
+        <v>58</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="1">
+        <v>43991</v>
+      </c>
+      <c r="E97">
+        <v>289</v>
+      </c>
+      <c r="F97">
+        <v>40975</v>
+      </c>
+      <c r="G97">
+        <v>48</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="1">
+        <v>43992</v>
+      </c>
+      <c r="E98">
+        <v>250</v>
+      </c>
+      <c r="F98">
+        <v>41225</v>
+      </c>
+      <c r="G98">
+        <v>57</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1">
+        <v>43993</v>
+      </c>
+      <c r="E99">
+        <v>152</v>
+      </c>
+      <c r="F99">
+        <v>41377</v>
+      </c>
+      <c r="G99">
+        <v>46</v>
+      </c>
+      <c r="H99">
+        <f>E99-G99</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="1">
+        <v>43994</v>
+      </c>
+      <c r="E100">
+        <v>204</v>
+      </c>
+      <c r="F100">
+        <v>41581</v>
+      </c>
+      <c r="G100">
+        <v>41</v>
+      </c>
+      <c r="H100">
+        <f>E100-G100</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="4:4">
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F147">
+    <sortCondition ref="D2"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1004,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1015,2922 +3888,2922 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>44041</v>
+        <v>43896</v>
       </c>
       <c r="E2">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>45961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>44040</v>
+        <v>43897</v>
       </c>
       <c r="E3">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>45878</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>44039</v>
+        <v>43898</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>45759</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>44038</v>
+        <v>43899</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>45752</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43900</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44037</v>
-      </c>
-      <c r="E6">
-        <v>61</v>
-      </c>
-      <c r="F6">
-        <v>45738</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43901</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>44036</v>
-      </c>
-      <c r="E7">
-        <v>123</v>
-      </c>
-      <c r="F7">
-        <v>45677</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>44035</v>
+        <v>43902</v>
       </c>
       <c r="E8">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>45554</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>44034</v>
+        <v>43903</v>
       </c>
       <c r="E9">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>45501</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>44033</v>
+        <v>43904</v>
       </c>
       <c r="E10">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>45422</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
-        <v>44032</v>
+        <v>43905</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>45312</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>44031</v>
+        <v>43906</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>45301</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>44030</v>
+        <v>43907</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>45273</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>44029</v>
+        <v>43908</v>
       </c>
       <c r="E14">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>45233</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>44028</v>
+        <v>43909</v>
       </c>
       <c r="E15">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F15">
-        <v>45119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>44027</v>
+        <v>43910</v>
       </c>
       <c r="E16">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>45053</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
-        <v>44026</v>
+        <v>43911</v>
       </c>
       <c r="E17">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="F17">
-        <v>44968</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>44025</v>
+        <v>43912</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F18">
-        <v>44830</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>44024</v>
+        <v>43913</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F19">
-        <v>44819</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
-        <v>44023</v>
+        <v>43914</v>
       </c>
       <c r="E20">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20">
-        <v>44798</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>44022</v>
+        <v>43915</v>
       </c>
       <c r="E21">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="F21">
-        <v>44650</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
-        <v>44021</v>
+        <v>43916</v>
       </c>
       <c r="E22">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="F22">
-        <v>44602</v>
+        <v>878</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
-        <v>44020</v>
+        <v>43917</v>
       </c>
       <c r="E23">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="F23">
-        <v>44517</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
-        <v>44019</v>
+        <v>43918</v>
       </c>
       <c r="E24">
-        <v>155</v>
+        <v>294</v>
       </c>
       <c r="F24">
-        <v>44391</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
-        <v>44018</v>
+        <v>43919</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="F25">
-        <v>44236</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
-        <v>44017</v>
+        <v>43920</v>
       </c>
       <c r="E26">
-        <v>22</v>
+        <v>374</v>
       </c>
       <c r="F26">
-        <v>44220</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
-        <v>44016</v>
+        <v>43921</v>
       </c>
       <c r="E27">
-        <v>67</v>
+        <v>382</v>
       </c>
       <c r="F27">
-        <v>44198</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
-        <v>44015</v>
+        <v>43922</v>
       </c>
       <c r="E28">
-        <v>137</v>
+        <v>670</v>
       </c>
       <c r="F28">
-        <v>44131</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
-        <v>44014</v>
+        <v>43923</v>
       </c>
       <c r="E29">
-        <v>89</v>
+        <v>652</v>
       </c>
       <c r="F29">
-        <v>43995</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
-        <v>44013</v>
+        <v>43924</v>
       </c>
       <c r="E30">
-        <v>176</v>
+        <v>714</v>
       </c>
       <c r="F30">
-        <v>43906</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
-        <v>44012</v>
+        <v>43925</v>
       </c>
       <c r="E31">
-        <v>155</v>
+        <v>760</v>
       </c>
       <c r="F31">
-        <v>43730</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
-        <v>44011</v>
+        <v>43926</v>
       </c>
       <c r="E32">
-        <v>25</v>
+        <v>644</v>
       </c>
       <c r="F32">
-        <v>43575</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
-        <v>44010</v>
+        <v>43927</v>
       </c>
       <c r="E33">
-        <v>36</v>
+        <v>568</v>
       </c>
       <c r="F33">
-        <v>43550</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
-        <v>44009</v>
+        <v>43928</v>
       </c>
       <c r="E34">
-        <v>100</v>
+        <v>1038</v>
       </c>
       <c r="F34">
-        <v>43514</v>
+        <v>7472</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
-        <v>44008</v>
+        <v>43929</v>
       </c>
       <c r="E35">
-        <v>186</v>
+        <v>1034</v>
       </c>
       <c r="F35">
-        <v>43414</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
-        <v>44007</v>
+        <v>43930</v>
       </c>
       <c r="E36">
-        <v>149</v>
+        <v>1110</v>
       </c>
       <c r="F36">
-        <v>43230</v>
+        <v>9616</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1">
-        <v>44006</v>
+        <v>43931</v>
       </c>
       <c r="E37">
-        <v>154</v>
+        <v>1152</v>
       </c>
       <c r="F37">
-        <v>43081</v>
+        <v>10768</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1">
-        <v>44005</v>
+        <v>43932</v>
       </c>
       <c r="E38">
-        <v>171</v>
+        <v>840</v>
       </c>
       <c r="F38">
-        <v>42927</v>
+        <v>11608</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1">
-        <v>44004</v>
+        <v>43933</v>
       </c>
       <c r="E39">
-        <v>15</v>
+        <v>686</v>
       </c>
       <c r="F39">
-        <v>42756</v>
+        <v>12294</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
-        <v>44003</v>
+        <v>43934</v>
       </c>
       <c r="E40">
-        <v>43</v>
+        <v>744</v>
       </c>
       <c r="F40">
-        <v>42741</v>
+        <v>13038</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>44002</v>
+        <v>43935</v>
       </c>
       <c r="E41">
-        <v>130</v>
+        <v>1047</v>
       </c>
       <c r="F41">
-        <v>42698</v>
+        <v>14085</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1">
-        <v>44001</v>
+        <v>43936</v>
       </c>
       <c r="E42">
-        <v>173</v>
+        <v>842</v>
       </c>
       <c r="F42">
-        <v>42568</v>
+        <v>14927</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
-        <v>44000</v>
+        <v>43937</v>
       </c>
       <c r="E43">
-        <v>137</v>
+        <v>1029</v>
       </c>
       <c r="F43">
-        <v>42395</v>
+        <v>15956</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
-        <v>43999</v>
+        <v>43938</v>
       </c>
       <c r="E44">
-        <v>184</v>
+        <v>936</v>
       </c>
       <c r="F44">
-        <v>42258</v>
+        <v>16892</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>43998</v>
+        <v>43939</v>
       </c>
       <c r="E45">
-        <v>236</v>
+        <v>1115</v>
       </c>
       <c r="F45">
-        <v>42074</v>
+        <v>18007</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1">
-        <v>43997</v>
+        <v>43940</v>
       </c>
       <c r="E46">
-        <v>38</v>
+        <v>498</v>
       </c>
       <c r="F46">
-        <v>41838</v>
+        <v>18505</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1">
-        <v>43996</v>
+        <v>43941</v>
       </c>
       <c r="E47">
-        <v>36</v>
+        <v>559</v>
       </c>
       <c r="F47">
-        <v>41800</v>
+        <v>19064</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1">
-        <v>43995</v>
+        <v>43942</v>
       </c>
       <c r="E48">
-        <v>183</v>
+        <v>1173</v>
       </c>
       <c r="F48">
-        <v>41764</v>
+        <v>20237</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
-        <v>43994</v>
+        <v>43943</v>
       </c>
       <c r="E49">
-        <v>204</v>
+        <v>837</v>
       </c>
       <c r="F49">
-        <v>41581</v>
+        <v>21074</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>43993</v>
+        <v>43944</v>
       </c>
       <c r="E50">
-        <v>152</v>
+        <v>727</v>
       </c>
       <c r="F50">
-        <v>41377</v>
+        <v>21801</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>43992</v>
+        <v>43945</v>
       </c>
       <c r="E51">
-        <v>250</v>
+        <v>1006</v>
       </c>
       <c r="F51">
-        <v>41225</v>
+        <v>22807</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="E52">
-        <v>289</v>
+        <v>843</v>
       </c>
       <c r="F52">
-        <v>40975</v>
+        <v>23650</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1">
-        <v>43990</v>
+        <v>43947</v>
       </c>
       <c r="E53">
-        <v>55</v>
+        <v>420</v>
       </c>
       <c r="F53">
-        <v>40686</v>
+        <v>24070</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1">
-        <v>43989</v>
+        <v>43948</v>
       </c>
       <c r="E54">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="F54">
-        <v>40631</v>
+        <v>24408</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
-        <v>43988</v>
+        <v>43949</v>
       </c>
       <c r="E55">
-        <v>207</v>
+        <v>911</v>
       </c>
       <c r="F55">
-        <v>40554</v>
+        <v>25319</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1">
-        <v>43987</v>
+        <v>43950</v>
       </c>
       <c r="E56">
-        <v>358</v>
+        <v>795</v>
       </c>
       <c r="F56">
-        <v>40347</v>
+        <v>26114</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D57" s="1">
-        <v>43986</v>
+        <v>43951</v>
       </c>
       <c r="E57">
-        <v>177</v>
+        <v>674</v>
       </c>
       <c r="F57">
-        <v>39989</v>
+        <v>26788</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1">
-        <v>43985</v>
+        <v>43952</v>
       </c>
       <c r="E58">
-        <v>365</v>
+        <v>740</v>
       </c>
       <c r="F58">
-        <v>39812</v>
+        <v>27528</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1">
-        <v>43984</v>
+        <v>43953</v>
       </c>
       <c r="E59">
-        <v>326</v>
+        <v>621</v>
       </c>
       <c r="F59">
-        <v>39447</v>
+        <v>28149</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1">
-        <v>43983</v>
+        <v>43954</v>
       </c>
       <c r="E60">
-        <v>111</v>
+        <v>315</v>
       </c>
       <c r="F60">
-        <v>39121</v>
+        <v>28464</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1">
-        <v>43982</v>
+        <v>43955</v>
       </c>
       <c r="E61">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c r="F61">
-        <v>39010</v>
+        <v>28752</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1">
-        <v>43981</v>
+        <v>43956</v>
       </c>
       <c r="E62">
-        <v>230</v>
+        <v>694</v>
       </c>
       <c r="F62">
-        <v>38895</v>
+        <v>29446</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1">
-        <v>43980</v>
+        <v>43957</v>
       </c>
       <c r="E63">
-        <v>373</v>
+        <v>652</v>
       </c>
       <c r="F63">
-        <v>38665</v>
+        <v>30098</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1">
-        <v>43979</v>
+        <v>43958</v>
       </c>
       <c r="E64">
-        <v>416</v>
+        <v>540</v>
       </c>
       <c r="F64">
-        <v>38292</v>
+        <v>30638</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1">
-        <v>43978</v>
+        <v>43959</v>
       </c>
       <c r="E65">
-        <v>443</v>
+        <v>627</v>
       </c>
       <c r="F65">
-        <v>37876</v>
+        <v>31265</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1">
-        <v>43977</v>
+        <v>43960</v>
       </c>
       <c r="E66">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="F66">
-        <v>37433</v>
+        <v>31610</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1">
-        <v>43976</v>
+        <v>43961</v>
       </c>
       <c r="E67">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="F67">
-        <v>37297</v>
+        <v>31879</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1">
-        <v>43975</v>
+        <v>43962</v>
       </c>
       <c r="E68">
-        <v>441</v>
+        <v>211</v>
       </c>
       <c r="F68">
-        <v>37175</v>
+        <v>32090</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1">
-        <v>43974</v>
+        <v>43963</v>
       </c>
       <c r="E69">
-        <v>283</v>
+        <v>630</v>
       </c>
       <c r="F69">
-        <v>36734</v>
+        <v>32720</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1">
-        <v>43973</v>
+        <v>43964</v>
       </c>
       <c r="E70">
-        <v>358</v>
+        <v>496</v>
       </c>
       <c r="F70">
-        <v>36451</v>
+        <v>33216</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
-        <v>43972</v>
+        <v>43965</v>
       </c>
       <c r="E71">
-        <v>338</v>
+        <v>428</v>
       </c>
       <c r="F71">
-        <v>36093</v>
+        <v>33644</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1">
-        <v>43971</v>
+        <v>43966</v>
       </c>
       <c r="E72">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F72">
-        <v>35755</v>
+        <v>34028</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D73" s="1">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="E73">
-        <v>548</v>
+        <v>480</v>
       </c>
       <c r="F73">
-        <v>35386</v>
+        <v>34508</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="E74">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F74">
-        <v>34838</v>
+        <v>34678</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="E75">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F75">
-        <v>34678</v>
+        <v>34838</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1">
-        <v>43967</v>
+        <v>43970</v>
       </c>
       <c r="E76">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="F76">
-        <v>34508</v>
+        <v>35386</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1">
-        <v>43966</v>
+        <v>43971</v>
       </c>
       <c r="E77">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F77">
-        <v>34028</v>
+        <v>35755</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1">
-        <v>43965</v>
+        <v>43972</v>
       </c>
       <c r="E78">
-        <v>428</v>
+        <v>338</v>
       </c>
       <c r="F78">
-        <v>33644</v>
+        <v>36093</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1">
-        <v>43964</v>
+        <v>43973</v>
       </c>
       <c r="E79">
-        <v>496</v>
+        <v>358</v>
       </c>
       <c r="F79">
-        <v>33216</v>
+        <v>36451</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1">
-        <v>43963</v>
+        <v>43974</v>
       </c>
       <c r="E80">
-        <v>630</v>
+        <v>283</v>
       </c>
       <c r="F80">
-        <v>32720</v>
+        <v>36734</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1">
-        <v>43962</v>
+        <v>43975</v>
       </c>
       <c r="E81">
-        <v>211</v>
+        <v>441</v>
       </c>
       <c r="F81">
-        <v>32090</v>
+        <v>37175</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1">
-        <v>43961</v>
+        <v>43976</v>
       </c>
       <c r="E82">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="F82">
-        <v>31879</v>
+        <v>37297</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1">
-        <v>43960</v>
+        <v>43977</v>
       </c>
       <c r="E83">
-        <v>345</v>
+        <v>136</v>
       </c>
       <c r="F83">
-        <v>31610</v>
+        <v>37433</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1">
-        <v>43959</v>
+        <v>43978</v>
       </c>
       <c r="E84">
-        <v>627</v>
+        <v>443</v>
       </c>
       <c r="F84">
-        <v>31265</v>
+        <v>37876</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1">
-        <v>43958</v>
+        <v>43979</v>
       </c>
       <c r="E85">
-        <v>540</v>
+        <v>416</v>
       </c>
       <c r="F85">
-        <v>30638</v>
+        <v>38292</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1">
-        <v>43957</v>
+        <v>43980</v>
       </c>
       <c r="E86">
-        <v>652</v>
+        <v>373</v>
       </c>
       <c r="F86">
-        <v>30098</v>
+        <v>38665</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1">
-        <v>43956</v>
+        <v>43981</v>
       </c>
       <c r="E87">
-        <v>694</v>
+        <v>230</v>
       </c>
       <c r="F87">
-        <v>29446</v>
+        <v>38895</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1">
-        <v>43955</v>
+        <v>43982</v>
       </c>
       <c r="E88">
-        <v>288</v>
+        <v>115</v>
       </c>
       <c r="F88">
-        <v>28752</v>
+        <v>39010</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1">
-        <v>43954</v>
+        <v>43983</v>
       </c>
       <c r="E89">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="F89">
-        <v>28464</v>
+        <v>39121</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="E90">
-        <v>621</v>
+        <v>326</v>
       </c>
       <c r="F90">
-        <v>28149</v>
+        <v>39447</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1">
-        <v>43952</v>
+        <v>43985</v>
       </c>
       <c r="E91">
-        <v>740</v>
+        <v>365</v>
       </c>
       <c r="F91">
-        <v>27528</v>
+        <v>39812</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D92" s="1">
-        <v>43951</v>
+        <v>43986</v>
       </c>
       <c r="E92">
-        <v>674</v>
+        <v>177</v>
       </c>
       <c r="F92">
-        <v>26788</v>
+        <v>39989</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1">
-        <v>43950</v>
+        <v>43987</v>
       </c>
       <c r="E93">
-        <v>795</v>
+        <v>358</v>
       </c>
       <c r="F93">
-        <v>26114</v>
+        <v>40347</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1">
-        <v>43949</v>
+        <v>43988</v>
       </c>
       <c r="E94">
-        <v>911</v>
+        <v>207</v>
       </c>
       <c r="F94">
-        <v>25319</v>
+        <v>40554</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1">
-        <v>43948</v>
+        <v>43989</v>
       </c>
       <c r="E95">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="F95">
-        <v>24408</v>
+        <v>40631</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D96" s="1">
-        <v>43947</v>
+        <v>43990</v>
       </c>
       <c r="E96">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="F96">
-        <v>24070</v>
+        <v>40686</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1">
-        <v>43946</v>
+        <v>43991</v>
       </c>
       <c r="E97">
-        <v>843</v>
+        <v>289</v>
       </c>
       <c r="F97">
-        <v>23650</v>
+        <v>40975</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D98" s="1">
-        <v>43945</v>
+        <v>43992</v>
       </c>
       <c r="E98">
-        <v>1006</v>
+        <v>250</v>
       </c>
       <c r="F98">
-        <v>22807</v>
+        <v>41225</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1">
-        <v>43944</v>
+        <v>43993</v>
       </c>
       <c r="E99">
-        <v>727</v>
+        <v>152</v>
       </c>
       <c r="F99">
-        <v>21801</v>
+        <v>41377</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D100" s="1">
-        <v>43943</v>
+        <v>43994</v>
       </c>
       <c r="E100">
-        <v>837</v>
+        <v>204</v>
       </c>
       <c r="F100">
-        <v>21074</v>
+        <v>41581</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1">
-        <v>43942</v>
+        <v>43995</v>
       </c>
       <c r="E101">
-        <v>1173</v>
+        <v>183</v>
       </c>
       <c r="F101">
-        <v>20237</v>
+        <v>41764</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D102" s="1">
-        <v>43941</v>
+        <v>43996</v>
       </c>
       <c r="E102">
-        <v>559</v>
+        <v>36</v>
       </c>
       <c r="F102">
-        <v>19064</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D103" s="1">
-        <v>43940</v>
+        <v>43997</v>
       </c>
       <c r="E103">
-        <v>498</v>
+        <v>38</v>
       </c>
       <c r="F103">
-        <v>18505</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1">
-        <v>43939</v>
+        <v>43998</v>
       </c>
       <c r="E104">
-        <v>1115</v>
+        <v>236</v>
       </c>
       <c r="F104">
-        <v>18007</v>
+        <v>42074</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D105" s="1">
-        <v>43938</v>
+        <v>43999</v>
       </c>
       <c r="E105">
-        <v>936</v>
+        <v>184</v>
       </c>
       <c r="F105">
-        <v>16892</v>
+        <v>42258</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1">
-        <v>43937</v>
+        <v>44000</v>
       </c>
       <c r="E106">
-        <v>1029</v>
+        <v>137</v>
       </c>
       <c r="F106">
-        <v>15956</v>
+        <v>42395</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1">
-        <v>43936</v>
+        <v>44001</v>
       </c>
       <c r="E107">
-        <v>842</v>
+        <v>173</v>
       </c>
       <c r="F107">
-        <v>14927</v>
+        <v>42568</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1">
-        <v>43935</v>
+        <v>44002</v>
       </c>
       <c r="E108">
-        <v>1047</v>
+        <v>130</v>
       </c>
       <c r="F108">
-        <v>14085</v>
+        <v>42698</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D109" s="1">
-        <v>43934</v>
+        <v>44003</v>
       </c>
       <c r="E109">
-        <v>744</v>
+        <v>43</v>
       </c>
       <c r="F109">
-        <v>13038</v>
+        <v>42741</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1">
-        <v>43933</v>
+        <v>44004</v>
       </c>
       <c r="E110">
-        <v>686</v>
+        <v>15</v>
       </c>
       <c r="F110">
-        <v>12294</v>
+        <v>42756</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D111" s="1">
-        <v>43932</v>
+        <v>44005</v>
       </c>
       <c r="E111">
-        <v>840</v>
+        <v>171</v>
       </c>
       <c r="F111">
-        <v>11608</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1">
-        <v>43931</v>
+        <v>44006</v>
       </c>
       <c r="E112">
-        <v>1152</v>
+        <v>154</v>
       </c>
       <c r="F112">
-        <v>10768</v>
+        <v>43081</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1">
-        <v>43930</v>
+        <v>44007</v>
       </c>
       <c r="E113">
-        <v>1110</v>
+        <v>149</v>
       </c>
       <c r="F113">
-        <v>9616</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1">
-        <v>43929</v>
+        <v>44008</v>
       </c>
       <c r="E114">
-        <v>1034</v>
+        <v>186</v>
       </c>
       <c r="F114">
-        <v>8506</v>
+        <v>43414</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D115" s="1">
-        <v>43928</v>
+        <v>44009</v>
       </c>
       <c r="E115">
-        <v>1038</v>
+        <v>100</v>
       </c>
       <c r="F115">
-        <v>7472</v>
+        <v>43514</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D116" s="1">
-        <v>43927</v>
+        <v>44010</v>
       </c>
       <c r="E116">
-        <v>568</v>
+        <v>36</v>
       </c>
       <c r="F116">
-        <v>6434</v>
+        <v>43550</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D117" s="1">
-        <v>43926</v>
+        <v>44011</v>
       </c>
       <c r="E117">
-        <v>644</v>
+        <v>25</v>
       </c>
       <c r="F117">
-        <v>5866</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1">
-        <v>43925</v>
+        <v>44012</v>
       </c>
       <c r="E118">
-        <v>760</v>
+        <v>155</v>
       </c>
       <c r="F118">
-        <v>5222</v>
+        <v>43730</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D119" s="1">
-        <v>43924</v>
+        <v>44013</v>
       </c>
       <c r="E119">
-        <v>714</v>
+        <v>176</v>
       </c>
       <c r="F119">
-        <v>4462</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D120" s="1">
-        <v>43923</v>
+        <v>44014</v>
       </c>
       <c r="E120">
-        <v>652</v>
+        <v>89</v>
       </c>
       <c r="F120">
-        <v>3748</v>
+        <v>43995</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1">
-        <v>43922</v>
+        <v>44015</v>
       </c>
       <c r="E121">
-        <v>670</v>
+        <v>137</v>
       </c>
       <c r="F121">
-        <v>3096</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D122" s="1">
-        <v>43921</v>
+        <v>44016</v>
       </c>
       <c r="E122">
-        <v>382</v>
+        <v>67</v>
       </c>
       <c r="F122">
-        <v>2426</v>
+        <v>44198</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1">
-        <v>43920</v>
+        <v>44017</v>
       </c>
       <c r="E123">
-        <v>374</v>
+        <v>22</v>
       </c>
       <c r="F123">
-        <v>2044</v>
+        <v>44220</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D124" s="1">
-        <v>43919</v>
+        <v>44018</v>
       </c>
       <c r="E124">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="F124">
-        <v>1670</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D125" s="1">
-        <v>43918</v>
+        <v>44019</v>
       </c>
       <c r="E125">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="F125">
-        <v>1456</v>
+        <v>44391</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D126" s="1">
-        <v>43917</v>
+        <v>44020</v>
       </c>
       <c r="E126">
-        <v>284</v>
+        <v>126</v>
       </c>
       <c r="F126">
-        <v>1162</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1">
-        <v>43916</v>
+        <v>44021</v>
       </c>
       <c r="E127">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="F127">
-        <v>878</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D128" s="1">
-        <v>43915</v>
+        <v>44022</v>
       </c>
       <c r="E128">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="F128">
-        <v>695</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D129" s="1">
-        <v>43914</v>
+        <v>44023</v>
       </c>
       <c r="E129">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F129">
-        <v>508</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D130" s="1">
-        <v>43913</v>
+        <v>44024</v>
       </c>
       <c r="E130">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="F130">
-        <v>359</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1">
-        <v>43912</v>
+        <v>44025</v>
       </c>
       <c r="E131">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F131">
-        <v>285</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1">
-        <v>43911</v>
+        <v>44026</v>
       </c>
       <c r="E132">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="F132">
-        <v>250</v>
+        <v>44968</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1">
-        <v>43910</v>
+        <v>44027</v>
       </c>
       <c r="E133">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F133">
-        <v>194</v>
+        <v>45053</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1">
-        <v>43909</v>
+        <v>44028</v>
       </c>
       <c r="E134">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F134">
-        <v>158</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D135" s="1">
-        <v>43908</v>
+        <v>44029</v>
       </c>
       <c r="E135">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="F135">
-        <v>115</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1">
-        <v>43907</v>
+        <v>44030</v>
       </c>
       <c r="E136">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F136">
-        <v>81</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D137" s="1">
-        <v>43906</v>
+        <v>44031</v>
       </c>
       <c r="E137">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F137">
-        <v>65</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D138" s="1">
-        <v>43905</v>
+        <v>44032</v>
       </c>
       <c r="E138">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F138">
-        <v>43</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1">
-        <v>43904</v>
+        <v>44033</v>
       </c>
       <c r="E139">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="F139">
-        <v>28</v>
+        <v>45422</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D140" s="1">
-        <v>43903</v>
+        <v>44034</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="F140">
-        <v>10</v>
+        <v>45501</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D141" s="1">
-        <v>43902</v>
+        <v>44035</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F141">
-        <v>9</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D142" s="1">
-        <v>43901</v>
+        <v>44036</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F142">
-        <v>7</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1">
-        <v>43900</v>
+        <v>44037</v>
       </c>
       <c r="E143">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F143">
-        <v>7</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D144" s="1">
-        <v>43899</v>
+        <v>44038</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F144">
-        <v>3</v>
+        <v>45752</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="1">
+        <v>44039</v>
+      </c>
+      <c r="E145">
         <v>7</v>
       </c>
-      <c r="C145" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="1">
-        <v>43898</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
       <c r="F145">
-        <v>2</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1">
-        <v>43897</v>
+        <v>44040</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="F146">
-        <v>2</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D147" s="1">
-        <v>43896</v>
+        <v>44041</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>45961</v>
       </c>
     </row>
   </sheetData>

--- a/uk daily.xlsx
+++ b/uk daily.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garmir/git/weilu/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387E3F11-F855-0147-A07B-6026F4970BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="10140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="12">
   <si>
     <t>Area name</t>
   </si>
@@ -56,361 +72,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -418,317 +104,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -986,24 +389,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121:E177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.0892857142857" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1081,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1159,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1211,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1315,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1445,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1536,8 +943,8 @@
       <c r="D21" s="1">
         <v>43895</v>
       </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="E21" s="2">
+        <v>4</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1549,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1562,8 +969,8 @@
       <c r="D22" s="1">
         <v>43896</v>
       </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="E22" s="2">
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1573,10 +980,10 @@
       </c>
       <c r="H22">
         <f>E22-G22</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1589,8 +996,8 @@
       <c r="D23" s="1">
         <v>43897</v>
       </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="E23" s="2">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1600,10 +1007,10 @@
       </c>
       <c r="H23">
         <f t="shared" ref="H23:H54" si="0">E23-G23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1616,8 +1023,8 @@
       <c r="D24" s="1">
         <v>43898</v>
       </c>
-      <c r="E24">
-        <v>0</v>
+      <c r="E24" s="2">
+        <v>2</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1627,10 +1034,10 @@
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1643,8 +1050,8 @@
       <c r="D25" s="1">
         <v>43899</v>
       </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="E25" s="2">
+        <v>5</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1654,10 +1061,10 @@
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1670,8 +1077,8 @@
       <c r="D26" s="1">
         <v>43900</v>
       </c>
-      <c r="E26">
-        <v>4</v>
+      <c r="E26" s="2">
+        <v>3</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -1681,10 +1088,10 @@
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1697,8 +1104,8 @@
       <c r="D27" s="1">
         <v>43901</v>
       </c>
-      <c r="E27">
-        <v>0</v>
+      <c r="E27" s="2">
+        <v>7</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -1708,10 +1115,10 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1724,8 +1131,8 @@
       <c r="D28" s="1">
         <v>43902</v>
       </c>
-      <c r="E28">
-        <v>2</v>
+      <c r="E28" s="2">
+        <v>11</v>
       </c>
       <c r="F28">
         <v>9</v>
@@ -1735,10 +1142,10 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1751,8 +1158,8 @@
       <c r="D29" s="1">
         <v>43903</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" s="2">
+        <v>16</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -1762,10 +1169,10 @@
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1778,8 +1185,8 @@
       <c r="D30" s="1">
         <v>43904</v>
       </c>
-      <c r="E30">
-        <v>18</v>
+      <c r="E30" s="2">
+        <v>19</v>
       </c>
       <c r="F30">
         <v>28</v>
@@ -1789,10 +1196,10 @@
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1805,8 +1212,8 @@
       <c r="D31" s="1">
         <v>43905</v>
       </c>
-      <c r="E31">
-        <v>15</v>
+      <c r="E31" s="2">
+        <v>30</v>
       </c>
       <c r="F31">
         <v>43</v>
@@ -1816,10 +1223,10 @@
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1832,8 +1239,8 @@
       <c r="D32" s="1">
         <v>43906</v>
       </c>
-      <c r="E32">
-        <v>22</v>
+      <c r="E32" s="2">
+        <v>47</v>
       </c>
       <c r="F32">
         <v>65</v>
@@ -1843,10 +1250,10 @@
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1859,8 +1266,8 @@
       <c r="D33" s="1">
         <v>43907</v>
       </c>
-      <c r="E33">
-        <v>16</v>
+      <c r="E33" s="2">
+        <v>55</v>
       </c>
       <c r="F33">
         <v>81</v>
@@ -1870,10 +1277,10 @@
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1886,8 +1293,8 @@
       <c r="D34" s="1">
         <v>43908</v>
       </c>
-      <c r="E34">
-        <v>34</v>
+      <c r="E34" s="2">
+        <v>67</v>
       </c>
       <c r="F34">
         <v>115</v>
@@ -1897,10 +1304,10 @@
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1913,8 +1320,8 @@
       <c r="D35" s="1">
         <v>43909</v>
       </c>
-      <c r="E35">
-        <v>43</v>
+      <c r="E35" s="2">
+        <v>74</v>
       </c>
       <c r="F35">
         <v>158</v>
@@ -1924,10 +1331,10 @@
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1940,8 +1347,8 @@
       <c r="D36" s="1">
         <v>43910</v>
       </c>
-      <c r="E36">
-        <v>36</v>
+      <c r="E36" s="2">
+        <v>110</v>
       </c>
       <c r="F36">
         <v>194</v>
@@ -1951,10 +1358,10 @@
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1967,8 +1374,8 @@
       <c r="D37" s="1">
         <v>43911</v>
       </c>
-      <c r="E37">
-        <v>56</v>
+      <c r="E37" s="2">
+        <v>132</v>
       </c>
       <c r="F37">
         <v>250</v>
@@ -1978,10 +1385,10 @@
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1994,8 +1401,8 @@
       <c r="D38" s="1">
         <v>43912</v>
       </c>
-      <c r="E38">
-        <v>35</v>
+      <c r="E38" s="2">
+        <v>175</v>
       </c>
       <c r="F38">
         <v>285</v>
@@ -2005,10 +1412,10 @@
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2021,8 +1428,8 @@
       <c r="D39" s="1">
         <v>43913</v>
       </c>
-      <c r="E39">
-        <v>74</v>
+      <c r="E39" s="2">
+        <v>197</v>
       </c>
       <c r="F39">
         <v>359</v>
@@ -2032,10 +1439,10 @@
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2048,8 +1455,8 @@
       <c r="D40" s="1">
         <v>43914</v>
       </c>
-      <c r="E40">
-        <v>149</v>
+      <c r="E40" s="2">
+        <v>247</v>
       </c>
       <c r="F40">
         <v>508</v>
@@ -2059,10 +1466,10 @@
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2075,8 +1482,8 @@
       <c r="D41" s="1">
         <v>43915</v>
       </c>
-      <c r="E41">
-        <v>187</v>
+      <c r="E41" s="2">
+        <v>308</v>
       </c>
       <c r="F41">
         <v>695</v>
@@ -2086,10 +1493,10 @@
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2102,8 +1509,8 @@
       <c r="D42" s="1">
         <v>43916</v>
       </c>
-      <c r="E42">
-        <v>183</v>
+      <c r="E42" s="2">
+        <v>384</v>
       </c>
       <c r="F42">
         <v>878</v>
@@ -2113,10 +1520,10 @@
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2129,8 +1536,8 @@
       <c r="D43" s="1">
         <v>43917</v>
       </c>
-      <c r="E43">
-        <v>284</v>
+      <c r="E43" s="2">
+        <v>431</v>
       </c>
       <c r="F43">
         <v>1162</v>
@@ -2140,10 +1547,10 @@
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2156,8 +1563,8 @@
       <c r="D44" s="1">
         <v>43918</v>
       </c>
-      <c r="E44">
-        <v>294</v>
+      <c r="E44" s="2">
+        <v>470</v>
       </c>
       <c r="F44">
         <v>1456</v>
@@ -2167,10 +1574,10 @@
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2183,8 +1590,8 @@
       <c r="D45" s="1">
         <v>43919</v>
       </c>
-      <c r="E45">
-        <v>214</v>
+      <c r="E45" s="2">
+        <v>553</v>
       </c>
       <c r="F45">
         <v>1670</v>
@@ -2194,10 +1601,10 @@
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2210,8 +1617,8 @@
       <c r="D46" s="1">
         <v>43920</v>
       </c>
-      <c r="E46">
-        <v>374</v>
+      <c r="E46" s="2">
+        <v>650</v>
       </c>
       <c r="F46">
         <v>2044</v>
@@ -2221,10 +1628,10 @@
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2237,8 +1644,8 @@
       <c r="D47" s="1">
         <v>43921</v>
       </c>
-      <c r="E47">
-        <v>382</v>
+      <c r="E47" s="2">
+        <v>764</v>
       </c>
       <c r="F47">
         <v>2426</v>
@@ -2248,10 +1655,10 @@
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2264,8 +1671,8 @@
       <c r="D48" s="1">
         <v>43922</v>
       </c>
-      <c r="E48">
-        <v>670</v>
+      <c r="E48" s="2">
+        <v>844</v>
       </c>
       <c r="F48">
         <v>3096</v>
@@ -2275,10 +1682,10 @@
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>519</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2291,8 +1698,8 @@
       <c r="D49" s="1">
         <v>43923</v>
       </c>
-      <c r="E49">
-        <v>652</v>
+      <c r="E49" s="2">
+        <v>929</v>
       </c>
       <c r="F49">
         <v>3748</v>
@@ -2302,10 +1709,10 @@
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2318,8 +1725,8 @@
       <c r="D50" s="1">
         <v>43924</v>
       </c>
-      <c r="E50">
-        <v>714</v>
+      <c r="E50" s="2">
+        <v>969</v>
       </c>
       <c r="F50">
         <v>4462</v>
@@ -2329,10 +1736,10 @@
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>483</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2345,8 +1752,8 @@
       <c r="D51" s="1">
         <v>43925</v>
       </c>
-      <c r="E51">
-        <v>760</v>
+      <c r="E51" s="2">
+        <v>1070</v>
       </c>
       <c r="F51">
         <v>5222</v>
@@ -2356,10 +1763,10 @@
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>524</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2372,8 +1779,8 @@
       <c r="D52" s="1">
         <v>43926</v>
       </c>
-      <c r="E52">
-        <v>644</v>
+      <c r="E52" s="2">
+        <v>1112</v>
       </c>
       <c r="F52">
         <v>5866</v>
@@ -2383,10 +1790,10 @@
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2399,8 +1806,8 @@
       <c r="D53" s="1">
         <v>43927</v>
       </c>
-      <c r="E53">
-        <v>568</v>
+      <c r="E53" s="2">
+        <v>1065</v>
       </c>
       <c r="F53">
         <v>6434</v>
@@ -2410,10 +1817,10 @@
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2426,8 +1833,8 @@
       <c r="D54" s="1">
         <v>43928</v>
       </c>
-      <c r="E54">
-        <v>1038</v>
+      <c r="E54" s="2">
+        <v>1191</v>
       </c>
       <c r="F54">
         <v>7472</v>
@@ -2437,10 +1844,10 @@
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>681</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2453,8 +1860,8 @@
       <c r="D55" s="1">
         <v>43929</v>
       </c>
-      <c r="E55">
-        <v>1034</v>
+      <c r="E55" s="2">
+        <v>1349</v>
       </c>
       <c r="F55">
         <v>8506</v>
@@ -2464,10 +1871,10 @@
       </c>
       <c r="H55">
         <f t="shared" ref="H55:H86" si="1">E55-G55</f>
-        <v>653</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2480,8 +1887,8 @@
       <c r="D56" s="1">
         <v>43930</v>
       </c>
-      <c r="E56">
-        <v>1110</v>
+      <c r="E56" s="2">
+        <v>1229</v>
       </c>
       <c r="F56">
         <v>9616</v>
@@ -2491,10 +1898,10 @@
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2507,8 +1914,8 @@
       <c r="D57" s="1">
         <v>43931</v>
       </c>
-      <c r="E57">
-        <v>1152</v>
+      <c r="E57" s="2">
+        <v>1206</v>
       </c>
       <c r="F57">
         <v>10768</v>
@@ -2518,10 +1925,10 @@
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>749</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2534,8 +1941,8 @@
       <c r="D58" s="1">
         <v>43932</v>
       </c>
-      <c r="E58">
-        <v>840</v>
+      <c r="E58" s="2">
+        <v>1248</v>
       </c>
       <c r="F58">
         <v>11608</v>
@@ -2545,10 +1952,10 @@
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
-        <v>393</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2561,8 +1968,8 @@
       <c r="D59" s="1">
         <v>43933</v>
       </c>
-      <c r="E59">
-        <v>686</v>
+      <c r="E59" s="2">
+        <v>1266</v>
       </c>
       <c r="F59">
         <v>12294</v>
@@ -2572,10 +1979,10 @@
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2588,8 +1995,8 @@
       <c r="D60" s="1">
         <v>43934</v>
       </c>
-      <c r="E60">
-        <v>744</v>
+      <c r="E60" s="2">
+        <v>1127</v>
       </c>
       <c r="F60">
         <v>13038</v>
@@ -2599,10 +2006,10 @@
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2615,8 +2022,8 @@
       <c r="D61" s="1">
         <v>43935</v>
       </c>
-      <c r="E61">
-        <v>1047</v>
+      <c r="E61" s="2">
+        <v>1133</v>
       </c>
       <c r="F61">
         <v>14085</v>
@@ -2626,10 +2033,10 @@
       </c>
       <c r="H61">
         <f t="shared" si="1"/>
-        <v>594</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2642,8 +2049,8 @@
       <c r="D62" s="1">
         <v>43936</v>
       </c>
-      <c r="E62">
-        <v>842</v>
+      <c r="E62" s="2">
+        <v>1156</v>
       </c>
       <c r="F62">
         <v>14927</v>
@@ -2653,10 +2060,10 @@
       </c>
       <c r="H62">
         <f t="shared" si="1"/>
-        <v>376</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2669,8 +2076,8 @@
       <c r="D63" s="1">
         <v>43937</v>
       </c>
-      <c r="E63">
-        <v>1029</v>
+      <c r="E63" s="2">
+        <v>1194</v>
       </c>
       <c r="F63">
         <v>15956</v>
@@ -2680,10 +2087,10 @@
       </c>
       <c r="H63">
         <f t="shared" si="1"/>
-        <v>503</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2696,8 +2103,8 @@
       <c r="D64" s="1">
         <v>43938</v>
       </c>
-      <c r="E64">
-        <v>936</v>
+      <c r="E64" s="2">
+        <v>1168</v>
       </c>
       <c r="F64">
         <v>16892</v>
@@ -2707,10 +2114,10 @@
       </c>
       <c r="H64">
         <f t="shared" si="1"/>
-        <v>396</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2723,8 +2130,8 @@
       <c r="D65" s="1">
         <v>43939</v>
       </c>
-      <c r="E65">
-        <v>1115</v>
+      <c r="E65" s="2">
+        <v>1077</v>
       </c>
       <c r="F65">
         <v>18007</v>
@@ -2734,10 +2141,10 @@
       </c>
       <c r="H65">
         <f t="shared" si="1"/>
-        <v>616</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2750,8 +2157,8 @@
       <c r="D66" s="1">
         <v>43940</v>
       </c>
-      <c r="E66">
-        <v>498</v>
+      <c r="E66" s="2">
+        <v>1015</v>
       </c>
       <c r="F66">
         <v>18505</v>
@@ -2761,10 +2168,10 @@
       </c>
       <c r="H66">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2777,8 +2184,8 @@
       <c r="D67" s="1">
         <v>43941</v>
       </c>
-      <c r="E67">
-        <v>559</v>
+      <c r="E67" s="2">
+        <v>1034</v>
       </c>
       <c r="F67">
         <v>19064</v>
@@ -2788,10 +2195,10 @@
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2804,8 +2211,8 @@
       <c r="D68" s="1">
         <v>43942</v>
       </c>
-      <c r="E68">
-        <v>1173</v>
+      <c r="E68" s="2">
+        <v>966</v>
       </c>
       <c r="F68">
         <v>20237</v>
@@ -2815,10 +2222,10 @@
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>737</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2831,8 +2238,8 @@
       <c r="D69" s="1">
         <v>43943</v>
       </c>
-      <c r="E69">
-        <v>837</v>
+      <c r="E69" s="2">
+        <v>983</v>
       </c>
       <c r="F69">
         <v>21074</v>
@@ -2842,10 +2249,10 @@
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2858,8 +2265,8 @@
       <c r="D70" s="1">
         <v>43944</v>
       </c>
-      <c r="E70">
-        <v>727</v>
+      <c r="E70" s="2">
+        <v>940</v>
       </c>
       <c r="F70">
         <v>21801</v>
@@ -2869,10 +2276,10 @@
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2885,8 +2292,8 @@
       <c r="D71" s="1">
         <v>43945</v>
       </c>
-      <c r="E71">
-        <v>1006</v>
+      <c r="E71" s="2">
+        <v>910</v>
       </c>
       <c r="F71">
         <v>22807</v>
@@ -2896,10 +2303,10 @@
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2912,8 +2319,8 @@
       <c r="D72" s="1">
         <v>43946</v>
       </c>
-      <c r="E72">
-        <v>843</v>
+      <c r="E72" s="2">
+        <v>812</v>
       </c>
       <c r="F72">
         <v>23650</v>
@@ -2923,10 +2330,10 @@
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>399</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2939,8 +2346,8 @@
       <c r="D73" s="1">
         <v>43947</v>
       </c>
-      <c r="E73">
-        <v>420</v>
+      <c r="E73" s="2">
+        <v>792</v>
       </c>
       <c r="F73">
         <v>24070</v>
@@ -2950,10 +2357,10 @@
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2966,8 +2373,8 @@
       <c r="D74" s="1">
         <v>43948</v>
       </c>
-      <c r="E74">
-        <v>338</v>
+      <c r="E74" s="2">
+        <v>752</v>
       </c>
       <c r="F74">
         <v>24408</v>
@@ -2977,10 +2384,10 @@
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>-51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2993,8 +2400,8 @@
       <c r="D75" s="1">
         <v>43949</v>
       </c>
-      <c r="E75">
-        <v>911</v>
+      <c r="E75" s="2">
+        <v>726</v>
       </c>
       <c r="F75">
         <v>25319</v>
@@ -3004,10 +2411,10 @@
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>526</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -3020,8 +2427,8 @@
       <c r="D76" s="1">
         <v>43950</v>
       </c>
-      <c r="E76">
-        <v>795</v>
+      <c r="E76" s="2">
+        <v>727</v>
       </c>
       <c r="F76">
         <v>26114</v>
@@ -3031,10 +2438,10 @@
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>403</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3047,8 +2454,8 @@
       <c r="D77" s="1">
         <v>43951</v>
       </c>
-      <c r="E77">
-        <v>674</v>
+      <c r="E77" s="2">
+        <v>691</v>
       </c>
       <c r="F77">
         <v>26788</v>
@@ -3058,10 +2465,10 @@
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>338</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -3074,8 +2481,8 @@
       <c r="D78" s="1">
         <v>43952</v>
       </c>
-      <c r="E78">
-        <v>740</v>
+      <c r="E78" s="2">
+        <v>691</v>
       </c>
       <c r="F78">
         <v>27528</v>
@@ -3085,10 +2492,10 @@
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3101,8 +2508,8 @@
       <c r="D79" s="1">
         <v>43953</v>
       </c>
-      <c r="E79">
-        <v>621</v>
+      <c r="E79" s="2">
+        <v>620</v>
       </c>
       <c r="F79">
         <v>28149</v>
@@ -3112,10 +2519,10 @@
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -3128,8 +2535,8 @@
       <c r="D80" s="1">
         <v>43954</v>
       </c>
-      <c r="E80">
-        <v>315</v>
+      <c r="E80" s="2">
+        <v>581</v>
       </c>
       <c r="F80">
         <v>28464</v>
@@ -3139,10 +2546,10 @@
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -3155,8 +2562,8 @@
       <c r="D81" s="1">
         <v>43955</v>
       </c>
-      <c r="E81">
-        <v>288</v>
+      <c r="E81" s="2">
+        <v>595</v>
       </c>
       <c r="F81">
         <v>28752</v>
@@ -3166,10 +2573,10 @@
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -3182,8 +2589,8 @@
       <c r="D82" s="1">
         <v>43956</v>
       </c>
-      <c r="E82">
-        <v>694</v>
+      <c r="E82" s="2">
+        <v>566</v>
       </c>
       <c r="F82">
         <v>29446</v>
@@ -3193,10 +2600,10 @@
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>399</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -3209,8 +2616,8 @@
       <c r="D83" s="1">
         <v>43957</v>
       </c>
-      <c r="E83">
-        <v>652</v>
+      <c r="E83" s="2">
+        <v>555</v>
       </c>
       <c r="F83">
         <v>30098</v>
@@ -3220,10 +2627,10 @@
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>385</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3236,8 +2643,8 @@
       <c r="D84" s="1">
         <v>43958</v>
       </c>
-      <c r="E84">
-        <v>540</v>
+      <c r="E84" s="2">
+        <v>559</v>
       </c>
       <c r="F84">
         <v>30638</v>
@@ -3247,10 +2654,10 @@
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3263,8 +2670,8 @@
       <c r="D85" s="1">
         <v>43959</v>
       </c>
-      <c r="E85">
-        <v>627</v>
+      <c r="E85" s="2">
+        <v>496</v>
       </c>
       <c r="F85">
         <v>31265</v>
@@ -3274,10 +2681,10 @@
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>353</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3290,8 +2697,8 @@
       <c r="D86" s="1">
         <v>43960</v>
       </c>
-      <c r="E86">
-        <v>345</v>
+      <c r="E86" s="2">
+        <v>479</v>
       </c>
       <c r="F86">
         <v>31610</v>
@@ -3301,10 +2708,10 @@
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3317,8 +2724,8 @@
       <c r="D87" s="1">
         <v>43961</v>
       </c>
-      <c r="E87">
-        <v>269</v>
+      <c r="E87" s="2">
+        <v>440</v>
       </c>
       <c r="F87">
         <v>31879</v>
@@ -3328,10 +2735,10 @@
       </c>
       <c r="H87">
         <f t="shared" ref="H87:H120" si="2">E87-G87</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3344,8 +2751,8 @@
       <c r="D88" s="1">
         <v>43962</v>
       </c>
-      <c r="E88">
-        <v>211</v>
+      <c r="E88" s="2">
+        <v>376</v>
       </c>
       <c r="F88">
         <v>32090</v>
@@ -3355,10 +2762,10 @@
       </c>
       <c r="H88">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -3371,8 +2778,8 @@
       <c r="D89" s="1">
         <v>43963</v>
       </c>
-      <c r="E89">
-        <v>630</v>
+      <c r="E89" s="2">
+        <v>396</v>
       </c>
       <c r="F89">
         <v>32720</v>
@@ -3382,10 +2789,10 @@
       </c>
       <c r="H89">
         <f t="shared" si="2"/>
-        <v>429</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -3398,8 +2805,8 @@
       <c r="D90" s="1">
         <v>43964</v>
       </c>
-      <c r="E90">
-        <v>496</v>
+      <c r="E90" s="2">
+        <v>392</v>
       </c>
       <c r="F90">
         <v>33216</v>
@@ -3409,10 +2816,10 @@
       </c>
       <c r="H90">
         <f t="shared" si="2"/>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -3425,8 +2832,8 @@
       <c r="D91" s="1">
         <v>43965</v>
       </c>
-      <c r="E91">
-        <v>428</v>
+      <c r="E91" s="2">
+        <v>395</v>
       </c>
       <c r="F91">
         <v>33644</v>
@@ -3436,10 +2843,10 @@
       </c>
       <c r="H91">
         <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -3452,8 +2859,8 @@
       <c r="D92" s="1">
         <v>43966</v>
       </c>
-      <c r="E92">
-        <v>384</v>
+      <c r="E92" s="2">
+        <v>376</v>
       </c>
       <c r="F92">
         <v>34028</v>
@@ -3463,10 +2870,10 @@
       </c>
       <c r="H92">
         <f t="shared" si="2"/>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -3479,8 +2886,8 @@
       <c r="D93" s="1">
         <v>43967</v>
       </c>
-      <c r="E93">
-        <v>480</v>
+      <c r="E93" s="2">
+        <v>373</v>
       </c>
       <c r="F93">
         <v>34508</v>
@@ -3490,10 +2897,10 @@
       </c>
       <c r="H93">
         <f t="shared" si="2"/>
-        <v>278</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3506,8 +2913,8 @@
       <c r="D94" s="1">
         <v>43968</v>
       </c>
-      <c r="E94">
-        <v>170</v>
+      <c r="E94" s="2">
+        <v>330</v>
       </c>
       <c r="F94">
         <v>34678</v>
@@ -3517,10 +2924,10 @@
       </c>
       <c r="H94">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3533,8 +2940,8 @@
       <c r="D95" s="1">
         <v>43969</v>
       </c>
-      <c r="E95">
-        <v>160</v>
+      <c r="E95" s="2">
+        <v>361</v>
       </c>
       <c r="F95">
         <v>34838</v>
@@ -3544,10 +2951,10 @@
       </c>
       <c r="H95">
         <f t="shared" si="2"/>
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -3560,8 +2967,8 @@
       <c r="D96" s="1">
         <v>43970</v>
       </c>
-      <c r="E96">
-        <v>548</v>
+      <c r="E96" s="2">
+        <v>325</v>
       </c>
       <c r="F96">
         <v>35386</v>
@@ -3571,10 +2978,10 @@
       </c>
       <c r="H96">
         <f t="shared" si="2"/>
-        <v>386</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -3587,8 +2994,8 @@
       <c r="D97" s="1">
         <v>43971</v>
       </c>
-      <c r="E97">
-        <v>369</v>
+      <c r="E97" s="2">
+        <v>313</v>
       </c>
       <c r="F97">
         <v>35755</v>
@@ -3598,10 +3005,10 @@
       </c>
       <c r="H97">
         <f t="shared" si="2"/>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -3614,8 +3021,8 @@
       <c r="D98" s="1">
         <v>43972</v>
       </c>
-      <c r="E98">
-        <v>338</v>
+      <c r="E98" s="2">
+        <v>297</v>
       </c>
       <c r="F98">
         <v>36093</v>
@@ -3625,10 +3032,10 @@
       </c>
       <c r="H98">
         <f t="shared" si="2"/>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -3641,8 +3048,8 @@
       <c r="D99" s="1">
         <v>43973</v>
       </c>
-      <c r="E99">
-        <v>358</v>
+      <c r="E99" s="2">
+        <v>273</v>
       </c>
       <c r="F99">
         <v>36451</v>
@@ -3652,10 +3059,10 @@
       </c>
       <c r="H99">
         <f t="shared" si="2"/>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -3668,8 +3075,8 @@
       <c r="D100" s="1">
         <v>43974</v>
       </c>
-      <c r="E100">
-        <v>283</v>
+      <c r="E100" s="2">
+        <v>264</v>
       </c>
       <c r="F100">
         <v>36734</v>
@@ -3679,10 +3086,10 @@
       </c>
       <c r="H100">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3695,8 +3102,8 @@
       <c r="D101" s="1">
         <v>43975</v>
       </c>
-      <c r="E101">
-        <v>441</v>
+      <c r="E101" s="2">
+        <v>254</v>
       </c>
       <c r="F101">
         <v>37175</v>
@@ -3706,10 +3113,10 @@
       </c>
       <c r="H101">
         <f t="shared" si="2"/>
-        <v>321</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -3722,8 +3129,8 @@
       <c r="D102" s="1">
         <v>43976</v>
       </c>
-      <c r="E102">
-        <v>122</v>
+      <c r="E102" s="2">
+        <v>250</v>
       </c>
       <c r="F102">
         <v>37297</v>
@@ -3733,10 +3140,10 @@
       </c>
       <c r="H102">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -3749,8 +3156,8 @@
       <c r="D103" s="1">
         <v>43977</v>
       </c>
-      <c r="E103">
-        <v>136</v>
+      <c r="E103" s="2">
+        <v>275</v>
       </c>
       <c r="F103">
         <v>37433</v>
@@ -3760,10 +3167,10 @@
       </c>
       <c r="H103">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -3776,8 +3183,8 @@
       <c r="D104" s="1">
         <v>43978</v>
       </c>
-      <c r="E104">
-        <v>443</v>
+      <c r="E104" s="2">
+        <v>246</v>
       </c>
       <c r="F104">
         <v>37876</v>
@@ -3787,10 +3194,10 @@
       </c>
       <c r="H104">
         <f t="shared" si="2"/>
-        <v>332</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -3803,8 +3210,8 @@
       <c r="D105" s="1">
         <v>43979</v>
       </c>
-      <c r="E105">
-        <v>416</v>
+      <c r="E105" s="2">
+        <v>256</v>
       </c>
       <c r="F105">
         <v>38292</v>
@@ -3814,10 +3221,10 @@
       </c>
       <c r="H105">
         <f t="shared" si="2"/>
-        <v>296</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3830,8 +3237,8 @@
       <c r="D106" s="1">
         <v>43980</v>
       </c>
-      <c r="E106">
-        <v>373</v>
+      <c r="E106" s="2">
+        <v>228</v>
       </c>
       <c r="F106">
         <v>38665</v>
@@ -3841,10 +3248,10 @@
       </c>
       <c r="H106">
         <f t="shared" si="2"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3857,8 +3264,8 @@
       <c r="D107" s="1">
         <v>43981</v>
       </c>
-      <c r="E107">
-        <v>230</v>
+      <c r="E107" s="2">
+        <v>201</v>
       </c>
       <c r="F107">
         <v>38895</v>
@@ -3868,10 +3275,10 @@
       </c>
       <c r="H107">
         <f t="shared" si="2"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -3884,8 +3291,8 @@
       <c r="D108" s="1">
         <v>43982</v>
       </c>
-      <c r="E108">
-        <v>115</v>
+      <c r="E108" s="2">
+        <v>179</v>
       </c>
       <c r="F108">
         <v>39010</v>
@@ -3895,10 +3302,10 @@
       </c>
       <c r="H108">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -3911,8 +3318,8 @@
       <c r="D109" s="1">
         <v>43983</v>
       </c>
-      <c r="E109">
-        <v>111</v>
+      <c r="E109" s="2">
+        <v>188</v>
       </c>
       <c r="F109">
         <v>39121</v>
@@ -3922,10 +3329,10 @@
       </c>
       <c r="H109">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -3938,8 +3345,8 @@
       <c r="D110" s="1">
         <v>43984</v>
       </c>
-      <c r="E110">
-        <v>326</v>
+      <c r="E110" s="2">
+        <v>211</v>
       </c>
       <c r="F110">
         <v>39447</v>
@@ -3949,10 +3356,10 @@
       </c>
       <c r="H110">
         <f t="shared" si="2"/>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -3965,8 +3372,8 @@
       <c r="D111" s="1">
         <v>43985</v>
       </c>
-      <c r="E111">
-        <v>365</v>
+      <c r="E111" s="2">
+        <v>184</v>
       </c>
       <c r="F111">
         <v>39812</v>
@@ -3976,10 +3383,10 @@
       </c>
       <c r="H111">
         <f t="shared" si="2"/>
-        <v>292</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3992,8 +3399,8 @@
       <c r="D112" s="1">
         <v>43986</v>
       </c>
-      <c r="E112">
-        <v>177</v>
+      <c r="E112" s="2">
+        <v>176</v>
       </c>
       <c r="F112">
         <v>39989</v>
@@ -4003,10 +3410,10 @@
       </c>
       <c r="H112">
         <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -4019,8 +3426,8 @@
       <c r="D113" s="1">
         <v>43987</v>
       </c>
-      <c r="E113">
-        <v>358</v>
+      <c r="E113" s="2">
+        <v>167</v>
       </c>
       <c r="F113">
         <v>40347</v>
@@ -4030,10 +3437,10 @@
       </c>
       <c r="H113">
         <f t="shared" si="2"/>
-        <v>282</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -4046,8 +3453,8 @@
       <c r="D114" s="1">
         <v>43988</v>
       </c>
-      <c r="E114">
-        <v>207</v>
+      <c r="E114" s="2">
+        <v>133</v>
       </c>
       <c r="F114">
         <v>40554</v>
@@ -4057,10 +3464,10 @@
       </c>
       <c r="H114">
         <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -4073,8 +3480,8 @@
       <c r="D115" s="1">
         <v>43989</v>
       </c>
-      <c r="E115">
-        <v>77</v>
+      <c r="E115" s="2">
+        <v>149</v>
       </c>
       <c r="F115">
         <v>40631</v>
@@ -4084,10 +3491,10 @@
       </c>
       <c r="H115">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -4100,8 +3507,8 @@
       <c r="D116" s="1">
         <v>43990</v>
       </c>
-      <c r="E116">
-        <v>55</v>
+      <c r="E116" s="2">
+        <v>150</v>
       </c>
       <c r="F116">
         <v>40686</v>
@@ -4111,10 +3518,10 @@
       </c>
       <c r="H116">
         <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -4127,8 +3534,8 @@
       <c r="D117" s="1">
         <v>43991</v>
       </c>
-      <c r="E117">
-        <v>289</v>
+      <c r="E117" s="2">
+        <v>131</v>
       </c>
       <c r="F117">
         <v>40975</v>
@@ -4138,10 +3545,10 @@
       </c>
       <c r="H117">
         <f t="shared" si="2"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -4154,8 +3561,8 @@
       <c r="D118" s="1">
         <v>43992</v>
       </c>
-      <c r="E118">
-        <v>250</v>
+      <c r="E118" s="2">
+        <v>147</v>
       </c>
       <c r="F118">
         <v>41225</v>
@@ -4165,10 +3572,10 @@
       </c>
       <c r="H118">
         <f t="shared" si="2"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -4181,8 +3588,8 @@
       <c r="D119" s="1">
         <v>43993</v>
       </c>
-      <c r="E119">
-        <v>152</v>
+      <c r="E119" s="2">
+        <v>110</v>
       </c>
       <c r="F119">
         <v>41377</v>
@@ -4192,10 +3599,10 @@
       </c>
       <c r="H119">
         <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -4208,8 +3615,8 @@
       <c r="D120" s="1">
         <v>43994</v>
       </c>
-      <c r="E120">
-        <v>204</v>
+      <c r="E120" s="2">
+        <v>122</v>
       </c>
       <c r="F120">
         <v>41581</v>
@@ -4219,174 +3626,246 @@
       </c>
       <c r="H120">
         <f t="shared" si="2"/>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="4:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="4:4">
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="4:4">
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="4:4">
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="4:4">
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="4:4">
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="4:4">
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="4:4">
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="4:4">
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="4:4">
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="4:4">
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="4:4">
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="4:4">
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="4:4">
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="4:4">
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="4:4">
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D136" s="1"/>
-    </row>
-    <row r="137" spans="4:4">
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D137" s="1"/>
-    </row>
-    <row r="138" spans="4:4">
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="4:4">
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D139" s="1"/>
-    </row>
-    <row r="140" spans="4:4">
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="4:4">
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D141" s="1"/>
-    </row>
-    <row r="142" spans="4:4">
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="4:4">
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D143" s="1"/>
-    </row>
-    <row r="144" spans="4:4">
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D144" s="1"/>
-    </row>
-    <row r="145" spans="4:4">
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D145" s="1"/>
-    </row>
-    <row r="146" spans="4:4">
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="4:4">
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="4:4">
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="4:4">
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="4:4">
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D150" s="1"/>
-    </row>
-    <row r="151" spans="4:4">
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="4:4">
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="4:4">
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="4:4">
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="4:4">
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="4:4">
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="4:4">
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="4:4">
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="4:4">
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D159" s="1"/>
-    </row>
-    <row r="160" spans="4:4">
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D160" s="1"/>
-    </row>
-    <row r="161" spans="4:4">
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D161" s="1"/>
-    </row>
-    <row r="162" spans="4:4">
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D162" s="1"/>
-    </row>
-    <row r="163" spans="4:4">
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="4:4">
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D164" s="1"/>
-    </row>
-    <row r="165" spans="4:4">
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D165" s="1"/>
-    </row>
-    <row r="166" spans="4:4">
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="4:4">
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D167" s="1"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E176" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F147">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F147">
     <sortCondition ref="D2"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:F$1048576"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.0892857142857" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4406,7 +3885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4426,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4446,7 +3925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4466,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4486,7 +3965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4506,7 +3985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4526,7 +4005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4546,7 +4025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4566,7 +4045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4586,7 +4065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4606,7 +4085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4626,7 +4105,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4646,7 +4125,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4666,7 +4145,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4686,7 +4165,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4706,7 +4185,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -4726,7 +4205,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4746,7 +4225,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -4766,7 +4245,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4786,7 +4265,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4806,7 +4285,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4826,7 +4305,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -4846,7 +4325,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4866,7 +4345,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4886,7 +4365,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -4906,7 +4385,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -4926,7 +4405,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4946,7 +4425,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -4966,7 +4445,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4986,7 +4465,7 @@
         <v>4462</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -5006,7 +4485,7 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -5026,7 +4505,7 @@
         <v>5866</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -5046,7 +4525,7 @@
         <v>6434</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -5066,7 +4545,7 @@
         <v>7472</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -5086,7 +4565,7 @@
         <v>8506</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -5106,7 +4585,7 @@
         <v>9616</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -5126,7 +4605,7 @@
         <v>10768</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -5146,7 +4625,7 @@
         <v>11608</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -5166,7 +4645,7 @@
         <v>12294</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -5186,7 +4665,7 @@
         <v>13038</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -5206,7 +4685,7 @@
         <v>14085</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -5226,7 +4705,7 @@
         <v>14927</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -5246,7 +4725,7 @@
         <v>15956</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -5266,7 +4745,7 @@
         <v>16892</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -5286,7 +4765,7 @@
         <v>18007</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -5306,7 +4785,7 @@
         <v>18505</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -5326,7 +4805,7 @@
         <v>19064</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -5346,7 +4825,7 @@
         <v>20237</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -5366,7 +4845,7 @@
         <v>21074</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -5386,7 +4865,7 @@
         <v>21801</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -5406,7 +4885,7 @@
         <v>22807</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -5426,7 +4905,7 @@
         <v>23650</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -5446,7 +4925,7 @@
         <v>24070</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -5466,7 +4945,7 @@
         <v>24408</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -5486,7 +4965,7 @@
         <v>25319</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -5506,7 +4985,7 @@
         <v>26114</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -5526,7 +5005,7 @@
         <v>26788</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -5546,7 +5025,7 @@
         <v>27528</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -5566,7 +5045,7 @@
         <v>28149</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -5586,7 +5065,7 @@
         <v>28464</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -5606,7 +5085,7 @@
         <v>28752</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -5626,7 +5105,7 @@
         <v>29446</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -5646,7 +5125,7 @@
         <v>30098</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -5666,7 +5145,7 @@
         <v>30638</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -5686,7 +5165,7 @@
         <v>31265</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -5706,7 +5185,7 @@
         <v>31610</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -5726,7 +5205,7 @@
         <v>31879</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -5746,7 +5225,7 @@
         <v>32090</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -5766,7 +5245,7 @@
         <v>32720</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -5786,7 +5265,7 @@
         <v>33216</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -5806,7 +5285,7 @@
         <v>33644</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -5826,7 +5305,7 @@
         <v>34028</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -5846,7 +5325,7 @@
         <v>34508</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -5866,7 +5345,7 @@
         <v>34678</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -5886,7 +5365,7 @@
         <v>34838</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -5906,7 +5385,7 @@
         <v>35386</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -5926,7 +5405,7 @@
         <v>35755</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -5946,7 +5425,7 @@
         <v>36093</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -5966,7 +5445,7 @@
         <v>36451</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -5986,7 +5465,7 @@
         <v>36734</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -6006,7 +5485,7 @@
         <v>37175</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -6026,7 +5505,7 @@
         <v>37297</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -6046,7 +5525,7 @@
         <v>37433</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -6066,7 +5545,7 @@
         <v>37876</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -6086,7 +5565,7 @@
         <v>38292</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -6106,7 +5585,7 @@
         <v>38665</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -6126,7 +5605,7 @@
         <v>38895</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -6146,7 +5625,7 @@
         <v>39010</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -6166,7 +5645,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -6186,7 +5665,7 @@
         <v>39447</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -6206,7 +5685,7 @@
         <v>39812</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -6226,7 +5705,7 @@
         <v>39989</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -6246,7 +5725,7 @@
         <v>40347</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -6266,7 +5745,7 @@
         <v>40554</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -6286,7 +5765,7 @@
         <v>40631</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -6306,7 +5785,7 @@
         <v>40686</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -6326,7 +5805,7 @@
         <v>40975</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -6346,7 +5825,7 @@
         <v>41225</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -6366,7 +5845,7 @@
         <v>41377</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -6386,7 +5865,7 @@
         <v>41581</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -6406,7 +5885,7 @@
         <v>41764</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -6426,7 +5905,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -6446,7 +5925,7 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -6466,7 +5945,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -6486,7 +5965,7 @@
         <v>42258</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -6506,7 +5985,7 @@
         <v>42395</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -6526,7 +6005,7 @@
         <v>42568</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -6546,7 +6025,7 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -6566,7 +6045,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -6586,7 +6065,7 @@
         <v>42756</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -6606,7 +6085,7 @@
         <v>42927</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -6626,7 +6105,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -6646,7 +6125,7 @@
         <v>43230</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -6666,7 +6145,7 @@
         <v>43414</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -6686,7 +6165,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -6706,7 +6185,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -6726,7 +6205,7 @@
         <v>43575</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -6746,7 +6225,7 @@
         <v>43730</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -6766,7 +6245,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -6786,7 +6265,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -6806,7 +6285,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -6826,7 +6305,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -6846,7 +6325,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -6866,7 +6345,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -6886,7 +6365,7 @@
         <v>44391</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -6906,7 +6385,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -6926,7 +6405,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -6946,7 +6425,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -6966,7 +6445,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -6986,7 +6465,7 @@
         <v>44819</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -7006,7 +6485,7 @@
         <v>44830</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -7026,7 +6505,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -7046,7 +6525,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -7066,7 +6545,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -7086,7 +6565,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -7106,7 +6585,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -7126,7 +6605,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -7146,7 +6625,7 @@
         <v>45312</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -7166,7 +6645,7 @@
         <v>45422</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -7186,7 +6665,7 @@
         <v>45501</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -7206,7 +6685,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -7226,7 +6705,7 @@
         <v>45677</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -7246,7 +6725,7 @@
         <v>45738</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -7266,7 +6745,7 @@
         <v>45752</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -7286,7 +6765,7 @@
         <v>45759</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -7306,7 +6785,7 @@
         <v>45878</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -7327,7 +6806,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>